--- a/Endpoint Table.xlsx
+++ b/Endpoint Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotika\Documents\binus stuff\internship stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0B927-E61F-4A32-92AF-60619F6CD4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15C77DC-A0E7-4105-B0BC-A3B2F0649AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C9771933-2399-4A5A-9078-FDA03ABD69F0}"/>
+    <workbookView xWindow="19335" yWindow="3555" windowWidth="18645" windowHeight="8715" xr2:uid="{C9771933-2399-4A5A-9078-FDA03ABD69F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -87,18 +87,12 @@
     <t>/api/v1/Project/Recommendation</t>
   </si>
   <si>
-    <t>{"keywords": "[string[set]]”}                  Set :{“Category”,”years”}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recommendation </t>
   </si>
   <si>
     <t>{"keywords": "[string[set]]”}            Set : {"most_popular","most_recent"}</t>
   </si>
   <si>
-    <t>{"keywords”:”[string[set]”}                       Set : {“most_recent”,"least recent","author_name"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">History </t>
   </si>
   <si>
@@ -118,6 +112,130 @@
   </si>
   <si>
     <t>{"data":[ {"project_title":"string", "image":"string", "verified":"boolean"} ]}</t>
+  </si>
+  <si>
+    <t>{"keywords": "[string[set]]”}                  Set :{”years”}</t>
+  </si>
+  <si>
+    <t>{"keywords”:”[string[set]”}                       Set : {“most_recent”,"least recent","author_name",“Category”}</t>
+  </si>
+  <si>
+    <t>/api/v1/project/:projectID</t>
+  </si>
+  <si>
+    <t>Project details</t>
+  </si>
+  <si>
+    <t>{"projectid":"string")</t>
+  </si>
+  <si>
+    <t>{"data":[{"course": "string",
+  "description": "string",
+  "projectID": "string",
+  "projectImage": "string",
+  "projectName": "string",
+  "projectThumbnail": "string",
+  "projectVideo": "string",
+  "userID": "string",
+  "verified": true
+}]}</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>/api/v1/user/login</t>
+  </si>
+  <si>
+    <t>User Info</t>
+  </si>
+  <si>
+    <t>/api/v1/user/:userID</t>
+  </si>
+  <si>
+    <t>{"data":[ {"email": "string", "password": "string", "userFirstName": "string", "userLastName": "string", "username": "string"}</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>/api/v1/user/update-profile</t>
+  </si>
+  <si>
+    <t>Update Role</t>
+  </si>
+  <si>
+    <t>/api/v1/user/update-role</t>
+  </si>
+  <si>
+    <t>{
+  "role": "string",
+  "userID":"string"
+}</t>
+  </si>
+  <si>
+    <t>Submit Project</t>
+  </si>
+  <si>
+    <t>/api/v1/project/submit</t>
+  </si>
+  <si>
+    <t>Validate Project</t>
+  </si>
+  <si>
+    <t>/api/v1/project/validate</t>
+  </si>
+  <si>
+    <t>{
+  "course": "string",
+  "description": "string",
+  "projectID": "string,
+  "projectImage": "string",
+  "projectName": "string",
+  "projectThumbnail": "string",
+  "projectVideo": "string",
+  "userID": "string",
+  "verified": "boolean"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "address": "string",
+  "batchYear": "string",
+  "phoneNum": "string",
+  "userFirstName": "string",
+  "userLastName": "string"
+}</t>
+  </si>
+  <si>
+    <t>{"email": "string",
+  "password": "string",
+  "userID": "String}</t>
+  </si>
+  <si>
+    <t>{"projectid":"string", "verified":"boolean"</t>
+  </si>
+  <si>
+    <t>List of unvalidated projects</t>
+  </si>
+  <si>
+    <t>/api/v1/unverified-project</t>
+  </si>
+  <si>
+    <t>{"data":["{
+  "course": "string",
+  "description": "string",
+  "projectID": "string,
+  "projectImage": "string",
+  "projectName": "string",
+  "projectThumbnail": "string",
+  "projectVideo": "string",
+  "userID": "string",
+  "verified": "boolean"
+}</t>
+  </si>
+  <si>
+    <t>{"verified":"False"}</t>
   </si>
 </sst>
 </file>
@@ -139,12 +257,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -154,6 +266,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -197,40 +315,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF5387F-6902-46C8-BFDA-F84D1AB88B5D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,130 +695,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Endpoint Table.xlsx
+++ b/Endpoint Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotika\Documents\binus stuff\internship stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15C77DC-A0E7-4105-B0BC-A3B2F0649AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E485ED5-CA6E-4E0C-8084-60CAA19C9128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19335" yWindow="3555" windowWidth="18645" windowHeight="8715" xr2:uid="{C9771933-2399-4A5A-9078-FDA03ABD69F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C9771933-2399-4A5A-9078-FDA03ABD69F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>{"verified":"False"}</t>
+  </si>
+  <si>
+    <t>Refresh Token</t>
+  </si>
+  <si>
+    <t>/api/v1/get-access-token</t>
+  </si>
+  <si>
+    <t>{"refresh_token":"string"}</t>
+  </si>
+  <si>
+    <t>{"token":"string"}</t>
   </si>
 </sst>
 </file>
@@ -315,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -366,6 +378,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF5387F-6902-46C8-BFDA-F84D1AB88B5D}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,6 +935,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Endpoint Table.xlsx
+++ b/Endpoint Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotika\Documents\binus stuff\internship stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E485ED5-CA6E-4E0C-8084-60CAA19C9128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D431E-6829-48E7-8C91-D3E944FBD404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C9771933-2399-4A5A-9078-FDA03ABD69F0}"/>
+    <workbookView xWindow="4395" yWindow="750" windowWidth="22290" windowHeight="14295" xr2:uid="{C9771933-2399-4A5A-9078-FDA03ABD69F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -60,39 +60,21 @@
     <t>Search</t>
   </si>
   <si>
-    <t>/api/v1/Project/Search</t>
-  </si>
-  <si>
     <t>{“projectID”:”string”}</t>
   </si>
   <si>
     <t>Filter</t>
   </si>
   <si>
-    <t>/api/v1/Project/Filter</t>
-  </si>
-  <si>
-    <t>{"data":[ {"project_title":"string", "image":"string"} ]}</t>
-  </si>
-  <si>
     <t>Sorting</t>
   </si>
   <si>
-    <t>/api/v1/Project/Sorting</t>
-  </si>
-  <si>
     <t> {"email": "string", "password": "string", "userFirstName": "string", "userLastName": "string", "username": "string"}</t>
   </si>
   <si>
-    <t>/api/v1/Project/Recommendation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recommendation </t>
   </si>
   <si>
-    <t>{"keywords": "[string[set]]”}            Set : {"most_popular","most_recent"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">History </t>
   </si>
   <si>
@@ -109,12 +91,6 @@
   </si>
   <si>
     <t>{"project_title":"string", "image":"string", "authors":["string"], "description":"string"} ]}</t>
-  </si>
-  <si>
-    <t>{"data":[ {"project_title":"string", "image":"string", "verified":"boolean"} ]}</t>
-  </si>
-  <si>
-    <t>{"keywords": "[string[set]]”}                  Set :{”years”}</t>
   </si>
   <si>
     <t>{"keywords”:”[string[set]”}                       Set : {“most_recent”,"least recent","author_name",“Category”}</t>
@@ -187,19 +163,6 @@
   </si>
   <si>
     <t>{
-  "course": "string",
-  "description": "string",
-  "projectID": "string,
-  "projectImage": "string",
-  "projectName": "string",
-  "projectThumbnail": "string",
-  "projectVideo": "string",
-  "userID": "string",
-  "verified": "boolean"
-}</t>
-  </si>
-  <si>
-    <t>{
   "address": "string",
   "batchYear": "string",
   "phoneNum": "string",
@@ -208,18 +171,69 @@
 }</t>
   </si>
   <si>
-    <t>{"email": "string",
-  "password": "string",
-  "userID": "String}</t>
-  </si>
-  <si>
-    <t>{"projectid":"string", "verified":"boolean"</t>
-  </si>
-  <si>
     <t>List of unvalidated projects</t>
   </si>
   <si>
     <t>/api/v1/unverified-project</t>
+  </si>
+  <si>
+    <t>Refresh Token</t>
+  </si>
+  <si>
+    <t>/api/v1/get-access-token</t>
+  </si>
+  <si>
+    <t>{"refresh_token":"string"}</t>
+  </si>
+  <si>
+    <t>{"token":"string"}</t>
+  </si>
+  <si>
+    <t>{"data":[ {
+  "notif_text": "string",
+  "notificationID": "string",
+  "projectID": "string",
+  "userID": "string"
+} ]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"years": "integer”}                  </t>
+  </si>
+  <si>
+    <t>{"keywords": "[string[set]]”}               Set : {"most_popular","most_recent"}</t>
+  </si>
+  <si>
+    <t>/api/v1/project/search</t>
+  </si>
+  <si>
+    <t>/api/v1/project/filter</t>
+  </si>
+  <si>
+    <t>/api/v1/project/sorting</t>
+  </si>
+  <si>
+    <t>/api/v1/project/recommendation</t>
+  </si>
+  <si>
+    <t>{"data":[ {"project_title":"string", "image":"string"} , "authors":["string"], "description":"string"}]}</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Welly &amp; Tama</t>
+  </si>
+  <si>
+    <t>Robert &amp; Ryo</t>
+  </si>
+  <si>
+    <t>Patch</t>
   </si>
   <si>
     <t>{"data":["{
@@ -231,30 +245,44 @@
   "projectThumbnail": "string",
   "projectVideo": "string",
   "userID": "string",
-  "verified": "boolean"
+  "verified": "boolean", "status":"string"
 }</t>
   </si>
   <si>
-    <t>{"verified":"False"}</t>
-  </si>
-  <si>
-    <t>Refresh Token</t>
-  </si>
-  <si>
-    <t>/api/v1/get-access-token</t>
-  </si>
-  <si>
-    <t>{"refresh_token":"string"}</t>
-  </si>
-  <si>
-    <t>{"token":"string"}</t>
+    <t>{
+  "course": "string",
+  "description": "string",
+  "projectID": "string,
+  "projectImage": "string",
+  "projectName": "string",
+  "projectThumbnail": "string",
+  "projectVideo": "string",
+  "userID": "string",
+  "verified": "boolean", "status": "Unchecked"
+}</t>
+  </si>
+  <si>
+    <t>{"projectid":"string",  "verified": boolean, "status": Checked</t>
+  </si>
+  <si>
+    <t>{"verified":"False", "status": Unchecked}</t>
+  </si>
+  <si>
+    <t>{"email": "string",
+  "password": "string"}</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ready</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +313,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +334,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -323,11 +363,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -341,9 +413,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -356,9 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -374,17 +440,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -697,259 +822,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF5387F-6902-46C8-BFDA-F84D1AB88B5D}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="F20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="D21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="E21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>57</v>
+      <c r="F21" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
